--- a/biology/Biologie cellulaire et moléculaire/Nagwa_Meguid/Nagwa_Meguid.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Nagwa_Meguid/Nagwa_Meguid.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nagwa Abdel Meguid est une généticienne égyptienne, lauréate en 2012 du prix L'Oréal-Unesco pour les femmes et la science pour ses travaux en génétique appliquée à la prévention des maladies mentales. 
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nagwa Meguid est diplômée de l'université du Golfe arabique. Elle est membre de l'Université d'Uppsala[1].
-Ses recherches ont permis « d'identifier plusieurs mutations génétiques causant des syndromes répandus tels que le syndrome de l'X fragile et l'autisme »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nagwa Meguid est diplômée de l'université du Golfe arabique. Elle est membre de l'Université d'Uppsala.
+Ses recherches ont permis « d'identifier plusieurs mutations génétiques causant des syndromes répandus tels que le syndrome de l'X fragile et l'autisme ».
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nagwa Meguid est membre du National Council for Women in Science and Technology et de la Société de Bio-éthique de l'UNESCO[1].
-En 2012 elle reçoit le Prix L'Oréal-Unesco pour les femmes et la science[3]. Estimant que les femmes scientifiques sont souvent sous-représentées en Égypte, elle déclare en recevant ce prix que celui-ci constitue une avancée majeure pour les femmes dans le monde arabe et ajoute « Nous pouvons faire une réelle différence au niveau international en science et c'est mon espoir que ma réussite aujourd'hui sera une source d'inspiration pour ces femmes. »[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nagwa Meguid est membre du National Council for Women in Science and Technology et de la Société de Bio-éthique de l'UNESCO.
+En 2012 elle reçoit le Prix L'Oréal-Unesco pour les femmes et la science. Estimant que les femmes scientifiques sont souvent sous-représentées en Égypte, elle déclare en recevant ce prix que celui-ci constitue une avancée majeure pour les femmes dans le monde arabe et ajoute « Nous pouvons faire une réelle différence au niveau international en science et c'est mon espoir que ma réussite aujourd'hui sera une source d'inspiration pour ces femmes. ».
 </t>
         </is>
       </c>
